--- a/static/download/2023/RP3_APT_ATFM_ARR_2023_Jan_Dec.xlsx
+++ b/static/download/2023/RP3_APT_ATFM_ARR_2023_Jan_Dec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\repos\ses-portal\static\download\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\01-release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A2552-CFA3-4BDB-BA96-C4CBA76714EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984194F7-AE28-4223-A9BC-2086F2F69A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APT_ATFM_SES_YY" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="54" r:id="rId6"/>
+    <pivotCache cacheId="134" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1360,89 +1360,106 @@
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1489,7 +1506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1509,6 +1526,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1878,11 +1904,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,16 +1926,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1918,25 +1944,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1957,124 +1983,124 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2100,23 +2126,23 @@
     <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2135,7 +2161,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="45306.673074305552" refreshedVersion="8" recordCount="145" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="45415.771039236111" refreshedVersion="8" recordCount="145" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:F150" sheet="APT_ATFM_APT"/>
   </cacheSource>
@@ -2174,13 +2200,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Apt. ATFM dly [min./arr.]" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4.8838089357385437"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.32"/>
     </cacheField>
     <cacheField name="FLTS [ARR]" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="229088"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="229088"/>
     </cacheField>
     <cacheField name="Airport ATFM arr. delay [total]" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="613404"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="606169"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2197,7 +2223,7 @@
     <x v="0"/>
     <s v="Brussels (EBBR)"/>
     <s v="EBBR"/>
-    <n v="0.43061226665529484"/>
+    <n v="0.43"/>
     <n v="93799"/>
     <n v="40391"/>
   </r>
@@ -2205,15 +2231,15 @@
     <x v="1"/>
     <s v="Berlin/ Schoenefeld (EDDB)"/>
     <s v="EDDB"/>
-    <n v="1.3059230892705635E-2"/>
+    <n v="0.01"/>
     <n v="87218"/>
-    <n v="1139"/>
+    <n v="1097"/>
   </r>
   <r>
     <x v="1"/>
     <s v="Dresden (EDDC)"/>
     <s v="EDDC"/>
-    <n v="2.1939586645468998E-2"/>
+    <n v="0.02"/>
     <n v="6290"/>
     <n v="138"/>
   </r>
@@ -2229,9 +2255,9 @@
     <x v="1"/>
     <s v="Frankfurt (EDDF)"/>
     <s v="EDDF"/>
-    <n v="1.3556530264240014"/>
+    <n v="1.33"/>
     <n v="215221"/>
-    <n v="291765"/>
+    <n v="286428"/>
   </r>
   <r>
     <x v="1"/>
@@ -2245,7 +2271,7 @@
     <x v="1"/>
     <s v="Hamburg (EDDH)"/>
     <s v="EDDH"/>
-    <n v="4.0157068062827227E-2"/>
+    <n v="0.04"/>
     <n v="57300"/>
     <n v="2301"/>
   </r>
@@ -2253,7 +2279,7 @@
     <x v="1"/>
     <s v="Cologne-Bonn (EDDK)"/>
     <s v="EDDK"/>
-    <n v="1.0441788296276089"/>
+    <n v="1.04"/>
     <n v="58648"/>
     <n v="61239"/>
   </r>
@@ -2261,7 +2287,7 @@
     <x v="1"/>
     <s v="Dusseldorf (EDDL)"/>
     <s v="EDDL"/>
-    <n v="0.15136099365750527"/>
+    <n v="0.15"/>
     <n v="75680"/>
     <n v="11455"/>
   </r>
@@ -2269,15 +2295,15 @@
     <x v="1"/>
     <s v="Munich (EDDM)"/>
     <s v="EDDM"/>
-    <n v="0.29911735861392613"/>
+    <n v="0.28999999999999998"/>
     <n v="149891"/>
-    <n v="44835"/>
+    <n v="43685"/>
   </r>
   <r>
     <x v="1"/>
     <s v="Nuremberg (EDDN)"/>
     <s v="EDDN"/>
-    <n v="9.6890376908638966E-3"/>
+    <n v="0.01"/>
     <n v="19713"/>
     <n v="191"/>
   </r>
@@ -2285,9 +2311,9 @@
     <x v="1"/>
     <s v="Leipzig-Halle (EDDP)"/>
     <s v="EDDP"/>
-    <n v="1.0533102932452996"/>
+    <n v="0.53"/>
     <n v="38773"/>
-    <n v="40840"/>
+    <n v="20555"/>
   </r>
   <r>
     <x v="1"/>
@@ -2301,17 +2327,17 @@
     <x v="1"/>
     <s v="Stuttgart (EDDS)"/>
     <s v="EDDS"/>
-    <n v="0.10769303468481239"/>
+    <n v="0.05"/>
     <n v="42324"/>
-    <n v="4558"/>
+    <n v="1987"/>
   </r>
   <r>
     <x v="1"/>
     <s v="Hanover (EDDV)"/>
     <s v="EDDV"/>
-    <n v="3.0620805369127517E-3"/>
+    <n v="0"/>
     <n v="23840"/>
-    <n v="73"/>
+    <n v="44"/>
   </r>
   <r>
     <x v="1"/>
@@ -2341,7 +2367,7 @@
     <x v="3"/>
     <s v="Helsinki/ Vantaa (EFHK)"/>
     <s v="EFHK"/>
-    <n v="0.14003524850193866"/>
+    <n v="0.14000000000000001"/>
     <n v="70925"/>
     <n v="9932"/>
   </r>
@@ -2349,15 +2375,15 @@
     <x v="4"/>
     <s v="Amsterdam/ Schiphol (EHAM)"/>
     <s v="EHAM"/>
-    <n v="2.677591144014527"/>
+    <n v="2.65"/>
     <n v="229088"/>
-    <n v="613404"/>
+    <n v="606169"/>
   </r>
   <r>
     <x v="4"/>
     <s v="Maastricht-Aachen (EHBK)"/>
     <s v="EHBK"/>
-    <n v="3.5714285714285712E-2"/>
+    <n v="0.04"/>
     <n v="2940"/>
     <n v="105"/>
   </r>
@@ -2365,7 +2391,7 @@
     <x v="4"/>
     <s v="Groningen (EHGG)"/>
     <s v="EHGG"/>
-    <n v="6.4064064064064067E-3"/>
+    <n v="0.01"/>
     <n v="4995"/>
     <n v="32"/>
   </r>
@@ -2373,7 +2399,7 @@
     <x v="4"/>
     <s v="Rotterdam (EHRD)"/>
     <s v="EHRD"/>
-    <n v="5.9044551798174989E-3"/>
+    <n v="0.01"/>
     <n v="13041"/>
     <n v="77"/>
   </r>
@@ -2389,7 +2415,7 @@
     <x v="5"/>
     <s v="Dublin (EIDW)"/>
     <s v="EIDW"/>
-    <n v="0.337069595852167"/>
+    <n v="0.34"/>
     <n v="120352"/>
     <n v="40567"/>
   </r>
@@ -2397,7 +2423,7 @@
     <x v="5"/>
     <s v="Shannon (EINN)"/>
     <s v="EINN"/>
-    <n v="0.22939669640491123"/>
+    <n v="0.23"/>
     <n v="11321"/>
     <n v="2597"/>
   </r>
@@ -2405,7 +2431,7 @@
     <x v="6"/>
     <s v="Copenhagen/ Kastrup (EKCH)"/>
     <s v="EKCH"/>
-    <n v="3.0871289740996439"/>
+    <n v="3.09"/>
     <n v="113705"/>
     <n v="351022"/>
   </r>
@@ -2413,7 +2439,7 @@
     <x v="7"/>
     <s v="Luxembourg (ELLX)"/>
     <s v="ELLX"/>
-    <n v="1.3560601854422298"/>
+    <n v="1.36"/>
     <n v="36022"/>
     <n v="48848"/>
   </r>
@@ -2421,7 +2447,7 @@
     <x v="8"/>
     <s v="Bergen (ENBR)"/>
     <s v="ENBR"/>
-    <n v="9.1423878274401321E-3"/>
+    <n v="0.01"/>
     <n v="46268"/>
     <n v="423"/>
   </r>
@@ -2429,7 +2455,7 @@
     <x v="8"/>
     <s v="Oslo/ Gardermoen (ENGM)"/>
     <s v="ENGM"/>
-    <n v="0.30287989628669321"/>
+    <n v="0.3"/>
     <n v="107990"/>
     <n v="32708"/>
   </r>
@@ -2461,7 +2487,7 @@
     <x v="9"/>
     <s v="Gdansk (EPGD)"/>
     <s v="EPGD"/>
-    <n v="4.1323042998897462E-2"/>
+    <n v="0.04"/>
     <n v="22675"/>
     <n v="937"/>
   </r>
@@ -2469,7 +2495,7 @@
     <x v="9"/>
     <s v="Krakow - Balice (EPKK)"/>
     <s v="EPKK"/>
-    <n v="4.0897057481057722E-2"/>
+    <n v="0.04"/>
     <n v="32863"/>
     <n v="1344"/>
   </r>
@@ -2477,7 +2503,7 @@
     <x v="9"/>
     <s v="Katowice - Pyrzowice (EPKT)"/>
     <s v="EPKT"/>
-    <n v="1.4298826143664557E-2"/>
+    <n v="0.01"/>
     <n v="20701"/>
     <n v="296"/>
   </r>
@@ -2501,7 +2527,7 @@
     <x v="9"/>
     <s v="Warszawa/ Modlin (EPMO)"/>
     <s v="EPMO"/>
-    <n v="0.57514638906961613"/>
+    <n v="0.57999999999999996"/>
     <n v="10759"/>
     <n v="6188"/>
   </r>
@@ -2509,7 +2535,7 @@
     <x v="9"/>
     <s v="Poznan - Lawica (EPPO)"/>
     <s v="EPPO"/>
-    <n v="3.3902323376007584E-2"/>
+    <n v="0.03"/>
     <n v="12654"/>
     <n v="429"/>
   </r>
@@ -2525,64 +2551,64 @@
     <x v="9"/>
     <s v="Rzeszow - Jasionka (EPRZ)"/>
     <s v="EPRZ"/>
-    <n v="0.18541996830427893"/>
-    <n v="7572"/>
-    <n v="1404"/>
+    <n v="0.04"/>
+    <n v="7187"/>
+    <n v="291"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Szczecin - Goleniów (EPSC)"/>
     <s v="EPSC"/>
-    <n v="0"/>
-    <n v="2677"/>
-    <n v="0"/>
+    <n v="0.02"/>
+    <n v="2538"/>
+    <n v="45"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Olsztyn-Mazury (EPSY)"/>
     <s v="EPSY"/>
     <n v="0"/>
-    <n v="855"/>
+    <n v="709"/>
     <n v="0"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Warszawa/ Chopina (EPWA)"/>
     <s v="EPWA"/>
-    <n v="0.35735110874535753"/>
-    <n v="82661"/>
-    <n v="29539"/>
+    <n v="0.02"/>
+    <n v="72324"/>
+    <n v="1122"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Wroclaw/ Strachowice (EPWR)"/>
     <s v="EPWR"/>
-    <n v="1.6630420877574517E-3"/>
-    <n v="15634"/>
-    <n v="26"/>
+    <n v="0.01"/>
+    <n v="13193"/>
+    <n v="179"/>
   </r>
   <r>
     <x v="9"/>
     <s v="Zielona Gora - Babimost (EPZG)"/>
     <s v="EPZG"/>
     <n v="0"/>
-    <n v="586"/>
+    <n v="519"/>
     <n v="0"/>
   </r>
   <r>
     <x v="10"/>
     <s v="Stockholm/ Arlanda (ESSA)"/>
     <s v="ESSA"/>
-    <n v="0.3000972043192528"/>
-    <n v="94646"/>
-    <n v="28403"/>
+    <n v="0.09"/>
+    <n v="85192"/>
+    <n v="7557"/>
   </r>
   <r>
     <x v="11"/>
     <s v="Liepaja (EVLA)"/>
     <s v="EVLA"/>
     <n v="0"/>
-    <n v="291"/>
+    <n v="556"/>
     <n v="0"/>
   </r>
   <r>
@@ -2590,79 +2616,79 @@
     <s v="Riga (EVRA)"/>
     <s v="EVRA"/>
     <n v="0"/>
-    <n v="30551"/>
-    <n v="0"/>
+    <n v="27318"/>
+    <n v="17"/>
   </r>
   <r>
     <x v="11"/>
     <s v="Ventspils (EVVA)"/>
     <s v="EVVA"/>
     <n v="0"/>
-    <n v="5"/>
+    <n v="4"/>
     <n v="0"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Gran Canaria (GCLP)"/>
     <s v="GCLP"/>
-    <n v="0.52989716500484485"/>
-    <n v="63986"/>
-    <n v="33906"/>
+    <n v="0.46"/>
+    <n v="58933"/>
+    <n v="26928"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Alicante (LEAL)"/>
     <s v="LEAL"/>
-    <n v="7.0792936632756667E-2"/>
-    <n v="50231"/>
-    <n v="3556"/>
+    <n v="0"/>
+    <n v="44885"/>
+    <n v="139"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Barcelona (LEBL)"/>
     <s v="LEBL"/>
-    <n v="0.65243833623835379"/>
-    <n v="159494"/>
-    <n v="104060"/>
+    <n v="0.52"/>
+    <n v="141727"/>
+    <n v="73396"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Ibiza (LEIB)"/>
     <s v="LEIB"/>
-    <n v="0.70932281198044611"/>
-    <n v="40299"/>
-    <n v="28585"/>
+    <n v="0.4"/>
+    <n v="39453"/>
+    <n v="15710"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Madrid/ Barajas (LEMD)"/>
     <s v="LEMD"/>
-    <n v="0.69069336032846362"/>
-    <n v="194603"/>
-    <n v="134411"/>
+    <n v="0.35"/>
+    <n v="175979"/>
+    <n v="62041"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Málaga (LEMG)"/>
     <s v="LEMG"/>
-    <n v="0.49465516582363961"/>
-    <n v="78487"/>
-    <n v="38824"/>
+    <n v="0.11"/>
+    <n v="69716"/>
+    <n v="7979"/>
   </r>
   <r>
     <x v="12"/>
     <s v="Palma de Mallorca (LEPA)"/>
     <s v="LEPA"/>
-    <n v="1.3249594031160852"/>
-    <n v="113925"/>
-    <n v="150946"/>
+    <n v="1.1299999999999999"/>
+    <n v="110072"/>
+    <n v="124264"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Albert-Bray (LFAQ)"/>
     <s v="LFAQ"/>
     <n v="0"/>
-    <n v="773"/>
+    <n v="738"/>
     <n v="0"/>
   </r>
   <r>
@@ -2670,87 +2696,87 @@
     <s v="Agen-La Garenne (LFBA)"/>
     <s v="LFBA"/>
     <n v="0"/>
-    <n v="906"/>
+    <n v="948"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Bordeaux-Mérignac (LFBD)"/>
     <s v="LFBD"/>
-    <n v="1.8702602106942274"/>
-    <n v="30091"/>
-    <n v="56278"/>
+    <n v="0.17"/>
+    <n v="27505"/>
+    <n v="4676"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Bergerac-Roumanière (LFBE)"/>
     <s v="LFBE"/>
     <n v="0"/>
-    <n v="1770"/>
+    <n v="1908"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="La Rochelle-Ile de Ré (LFBH)"/>
     <s v="LFBH"/>
-    <n v="3.3913043478260872E-2"/>
-    <n v="2300"/>
-    <n v="78"/>
+    <n v="0"/>
+    <n v="2291"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Poitiers-Biard (LFBI)"/>
     <s v="LFBI"/>
-    <n v="3.2923832923832927E-2"/>
-    <n v="2035"/>
-    <n v="67"/>
+    <n v="0"/>
+    <n v="2281"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Limoges-Bellegarde (LFBL)"/>
     <s v="LFBL"/>
-    <n v="0.69967948717948714"/>
-    <n v="3120"/>
-    <n v="2183"/>
+    <n v="1.3"/>
+    <n v="3047"/>
+    <n v="3951"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Toulouse-Blagnac (LFBO)"/>
     <s v="LFBO"/>
-    <n v="0.2097839380350591"/>
-    <n v="36795"/>
-    <n v="7719"/>
+    <n v="0.06"/>
+    <n v="34893"/>
+    <n v="1966"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Pau-Pyrénées (LFBP)"/>
     <s v="LFBP"/>
     <n v="0"/>
-    <n v="3890"/>
+    <n v="4072"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Tarbes-Lourdes Pyrénées (LFBT)"/>
     <s v="LFBT"/>
-    <n v="3.3848847388386345E-2"/>
-    <n v="3427"/>
-    <n v="116"/>
+    <n v="0.04"/>
+    <n v="3355"/>
+    <n v="120"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Biarritz-Bayonne-Anglet (LFBZ)"/>
     <s v="LFBZ"/>
-    <n v="1.9910403185664509E-3"/>
-    <n v="6027"/>
-    <n v="12"/>
+    <n v="0.2"/>
+    <n v="5911"/>
+    <n v="1206"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Rodez-Marcillac (LFCR)"/>
     <s v="LFCR"/>
     <n v="0"/>
-    <n v="1503"/>
+    <n v="1716"/>
     <n v="0"/>
   </r>
   <r>
@@ -2758,7 +2784,7 @@
     <s v="Dôle-Tavaux (LFGJ)"/>
     <s v="LFGJ"/>
     <n v="0"/>
-    <n v="1367"/>
+    <n v="1482"/>
     <n v="0"/>
   </r>
   <r>
@@ -2766,111 +2792,111 @@
     <s v="Metz-Nancy-Lorraine (LFJL)"/>
     <s v="LFJL"/>
     <n v="0"/>
-    <n v="1478"/>
+    <n v="1236"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Bastia-Poretta (LFKB)"/>
     <s v="LFKB"/>
-    <n v="2.2536240711414302E-2"/>
-    <n v="8209"/>
-    <n v="185"/>
+    <n v="0.12"/>
+    <n v="8494"/>
+    <n v="1000"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Calvi-Sainte-Catherine (LFKC)"/>
     <s v="LFKC"/>
-    <n v="0"/>
-    <n v="3144"/>
-    <n v="0"/>
+    <n v="0.28000000000000003"/>
+    <n v="3338"/>
+    <n v="951"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Figari-Sud Corse (LFKF)"/>
     <s v="LFKF"/>
-    <n v="0.23076923076923078"/>
-    <n v="5642"/>
-    <n v="1302"/>
+    <n v="0.34"/>
+    <n v="6264"/>
+    <n v="2137"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Ajaccio-Napoléon-Bonaparte (LFKJ)"/>
     <s v="LFKJ"/>
-    <n v="1.3982642237222759E-2"/>
-    <n v="8296"/>
-    <n v="116"/>
+    <n v="0.05"/>
+    <n v="8954"/>
+    <n v="469"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Chambéry-Aix-les-Bains (LFLB)"/>
     <s v="LFLB"/>
-    <n v="4.2332607512248233"/>
-    <n v="3674"/>
-    <n v="15553"/>
+    <n v="0.94"/>
+    <n v="3827"/>
+    <n v="3616"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Clermont-Ferrand-Auvergne (LFLC)"/>
     <s v="LFLC"/>
     <n v="0"/>
-    <n v="3642"/>
-    <n v="0"/>
+    <n v="3943"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Lyon-Saint-Exupéry (LFLL)"/>
     <s v="LFLL"/>
-    <n v="1.4433173957728227E-2"/>
-    <n v="44758"/>
-    <n v="646"/>
+    <n v="0.04"/>
+    <n v="40282"/>
+    <n v="1638"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Annecy-Meythet (LFLP)"/>
     <s v="LFLP"/>
-    <n v="0.22665947112790069"/>
-    <n v="1853"/>
-    <n v="420"/>
+    <n v="0.36"/>
+    <n v="2066"/>
+    <n v="753"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Grenoble-Isère (LFLS)"/>
     <s v="LFLS"/>
-    <n v="0.41699664940603109"/>
-    <n v="3283"/>
-    <n v="1369"/>
+    <n v="0.57999999999999996"/>
+    <n v="3494"/>
+    <n v="2036"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Châteauroux-Déols (LFLX)"/>
     <s v="LFLX"/>
     <n v="0"/>
-    <n v="1207"/>
+    <n v="1225"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Lyon-Bron (LFLY)"/>
     <s v="LFLY"/>
-    <n v="2.0734730673878748E-2"/>
-    <n v="4437"/>
-    <n v="92"/>
+    <n v="0"/>
+    <n v="4964"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Cannes-Mandelieu (LFMD)"/>
     <s v="LFMD"/>
-    <n v="1.0930416447021614"/>
-    <n v="7588"/>
-    <n v="8294"/>
+    <n v="2.86"/>
+    <n v="8547"/>
+    <n v="24430"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Saint-Etienne-Bouthéon (LFMH)"/>
     <s v="LFMH"/>
     <n v="0"/>
-    <n v="660"/>
+    <n v="860"/>
     <n v="0"/>
   </r>
   <r>
@@ -2878,167 +2904,167 @@
     <s v="Istres-Le Tubé (LFMI)"/>
     <s v="LFMI"/>
     <n v="0"/>
-    <n v="1510"/>
+    <n v="1795"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Carcassonne-Salvaza (LFMK)"/>
     <s v="LFMK"/>
-    <n v="4.1303350160624142E-3"/>
-    <n v="2179"/>
-    <n v="9"/>
+    <n v="0"/>
+    <n v="2627"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Marseille-Provence (LFML)"/>
     <s v="LFML"/>
-    <n v="1.6515443823465066"/>
-    <n v="50279"/>
-    <n v="83038"/>
+    <n v="0.24"/>
+    <n v="45816"/>
+    <n v="10811"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Nice-Côte d’Azur (LFMN)"/>
     <s v="LFMN"/>
-    <n v="1.0148687167680754"/>
-    <n v="72972"/>
-    <n v="74057"/>
+    <n v="0.85"/>
+    <n v="67572"/>
+    <n v="57701"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Perpignan-Rivesaltes (LFMP)"/>
     <s v="LFMP"/>
-    <n v="8.8983050847457626E-2"/>
-    <n v="5192"/>
-    <n v="462"/>
+    <n v="0.01"/>
+    <n v="5995"/>
+    <n v="49"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Montpellier-Méditerranée (LFMT)"/>
     <s v="LFMT"/>
-    <n v="1.4769390222836415E-2"/>
-    <n v="11578"/>
-    <n v="171"/>
+    <n v="0"/>
+    <n v="12983"/>
+    <n v="29"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Béziers-Vias (LFMU)"/>
     <s v="LFMU"/>
-    <n v="0.3792235801581596"/>
-    <n v="2782"/>
-    <n v="1055"/>
+    <n v="0"/>
+    <n v="2869"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Avignon-Caumont (LFMV)"/>
     <s v="LFMV"/>
-    <n v="0.20090233545647559"/>
-    <n v="3768"/>
-    <n v="757"/>
+    <n v="0.28000000000000003"/>
+    <n v="3869"/>
+    <n v="1102"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Beauvais-Tillé (LFOB)"/>
     <s v="LFOB"/>
-    <n v="0.10296483566996092"/>
-    <n v="17404"/>
-    <n v="1792"/>
+    <n v="0.01"/>
+    <n v="15164"/>
+    <n v="224"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Châlons-Vatry (LFOK)"/>
     <s v="LFOK"/>
-    <n v="0.23655913978494625"/>
-    <n v="1674"/>
-    <n v="396"/>
+    <n v="0.8"/>
+    <n v="1870"/>
+    <n v="1498"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Rouen (LFOP)"/>
     <s v="LFOP"/>
-    <n v="1.3838323353293414"/>
-    <n v="1670"/>
-    <n v="2311"/>
+    <n v="0.04"/>
+    <n v="1779"/>
+    <n v="74"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Tours-Val de Loire (LFOT)"/>
     <s v="LFOT"/>
-    <n v="3.0813397129186604"/>
-    <n v="1881"/>
-    <n v="5796"/>
+    <n v="9.32"/>
+    <n v="1722"/>
+    <n v="16053"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Paris-Le Bourget (LFPB)"/>
     <s v="LFPB"/>
-    <n v="1.5197177817921539"/>
-    <n v="29339"/>
-    <n v="44587"/>
+    <n v="1.84"/>
+    <n v="31969"/>
+    <n v="58819"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Paris-Charles-de-Gaulle (LFPG)"/>
     <s v="LFPG"/>
-    <n v="0.19210571417271277"/>
-    <n v="227557"/>
-    <n v="43715"/>
+    <n v="0.45"/>
+    <n v="204649"/>
+    <n v="92523"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Toussus-le-Noble (LFPN)"/>
     <s v="LFPN"/>
-    <n v="4.8655060590544466"/>
-    <n v="5859"/>
-    <n v="28507"/>
+    <n v="2.94"/>
+    <n v="5804"/>
+    <n v="17092"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Paris-Orly (LFPO)"/>
     <s v="LFPO"/>
-    <n v="1.5413840021463341"/>
-    <n v="104364"/>
-    <n v="160865"/>
+    <n v="1.74"/>
+    <n v="99372"/>
+    <n v="173039"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Lille-Lesquin (LFQQ)"/>
     <s v="LFQQ"/>
-    <n v="0.13669623059866962"/>
-    <n v="9020"/>
-    <n v="1233"/>
+    <n v="0.05"/>
+    <n v="9414"/>
+    <n v="460"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Brest-Bretagne (LFRB)"/>
     <s v="LFRB"/>
     <n v="0"/>
-    <n v="6693"/>
-    <n v="0"/>
+    <n v="6366"/>
+    <n v="27"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Dinard-Pleurtuit-Saint-Malo (LFRD)"/>
     <s v="LFRD"/>
     <n v="0"/>
-    <n v="1178"/>
+    <n v="1123"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Deauville-Normandie (LFRG)"/>
     <s v="LFRG"/>
-    <n v="0.53114065780265918"/>
-    <n v="1429"/>
-    <n v="759"/>
+    <n v="0.15"/>
+    <n v="1474"/>
+    <n v="220"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Lorient-Lann Bihoué (LFRH)"/>
     <s v="LFRH"/>
     <n v="0"/>
-    <n v="1787"/>
+    <n v="1977"/>
     <n v="0"/>
   </r>
   <r>
@@ -3046,7 +3072,7 @@
     <s v="Caen-Carpiquet (LFRK)"/>
     <s v="LFRK"/>
     <n v="0"/>
-    <n v="2607"/>
+    <n v="2481"/>
     <n v="0"/>
   </r>
   <r>
@@ -3054,7 +3080,7 @@
     <s v="Rennes-Saint-Jacques (LFRN)"/>
     <s v="LFRN"/>
     <n v="0"/>
-    <n v="6129"/>
+    <n v="6367"/>
     <n v="0"/>
   </r>
   <r>
@@ -3062,159 +3088,159 @@
     <s v="Quimper-Pluguffan (LFRQ)"/>
     <s v="LFRQ"/>
     <n v="0"/>
-    <n v="1092"/>
+    <n v="1050"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Nantes-Atlantique (LFRS)"/>
     <s v="LFRS"/>
-    <n v="0.17597633136094676"/>
-    <n v="25350"/>
-    <n v="4461"/>
+    <n v="0.05"/>
+    <n v="23333"/>
+    <n v="1183"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Saint-Nazaire-Montoir (LFRZ)"/>
     <s v="LFRZ"/>
     <n v="0"/>
-    <n v="1464"/>
+    <n v="1389"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Bâle-Mulhouse (LFSB)"/>
     <s v="LFSB"/>
-    <n v="0.55427408412483037"/>
-    <n v="35376"/>
-    <n v="19608"/>
+    <n v="0.21"/>
+    <n v="33257"/>
+    <n v="6874"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Brive-Souillac (LFSL)"/>
     <s v="LFSL"/>
     <n v="0"/>
-    <n v="1587"/>
+    <n v="1677"/>
     <n v="0"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Strasbourg-Entzheim (LFST)"/>
     <s v="LFST"/>
-    <n v="4.3829494671708491E-2"/>
-    <n v="5818"/>
-    <n v="255"/>
+    <n v="0"/>
+    <n v="6373"/>
+    <n v="9"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Hyères-Le Palyvestre (LFTH)"/>
     <s v="LFTH"/>
-    <n v="4.0525235945835041"/>
-    <n v="4874"/>
-    <n v="19752"/>
+    <n v="1.28"/>
+    <n v="5288"/>
+    <n v="6755"/>
   </r>
   <r>
     <x v="13"/>
     <s v="Nîmes-Garons (LFTW)"/>
     <s v="LFTW"/>
-    <n v="0"/>
-    <n v="2644"/>
-    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="2241"/>
+    <n v="152"/>
   </r>
   <r>
     <x v="14"/>
     <s v="Athens (LGAV)"/>
     <s v="LGAV"/>
-    <n v="3.2436131541127735"/>
-    <n v="118290"/>
-    <n v="383687"/>
+    <n v="1.64"/>
+    <n v="103837"/>
+    <n v="170024"/>
   </r>
   <r>
     <x v="15"/>
     <s v="Budapest/ Ferihegy (LHBP)"/>
     <s v="LHBP"/>
-    <n v="1.744456649228306E-2"/>
-    <n v="53713"/>
-    <n v="937"/>
+    <n v="0"/>
+    <n v="48969"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Milan/ Malpensa (LIMC)"/>
     <s v="LIMC"/>
-    <n v="0.38029506931457241"/>
-    <n v="101061"/>
-    <n v="38433"/>
+    <n v="0.09"/>
+    <n v="93357"/>
+    <n v="8327"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Bergamo (LIME)"/>
     <s v="LIME"/>
-    <n v="7.1985697164973772E-2"/>
-    <n v="50899"/>
-    <n v="3664"/>
+    <n v="0.08"/>
+    <n v="44432"/>
+    <n v="3496"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Milan/ Linate (LIML)"/>
     <s v="LIML"/>
-    <n v="6.4205428457840899E-2"/>
-    <n v="55338"/>
-    <n v="3553"/>
+    <n v="0.13"/>
+    <n v="50590"/>
+    <n v="6729"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Venice (LIPZ)"/>
     <s v="LIPZ"/>
-    <n v="6.9726002036471349E-2"/>
-    <n v="43212"/>
-    <n v="3013"/>
+    <n v="0.04"/>
+    <n v="39567"/>
+    <n v="1583"/>
   </r>
   <r>
     <x v="16"/>
     <s v="Rome/Fiumicino (LIRF)"/>
     <s v="LIRF"/>
-    <n v="6.4715593576467056E-2"/>
-    <n v="133260"/>
-    <n v="8624"/>
+    <n v="0.04"/>
+    <n v="106267"/>
+    <n v="3751"/>
   </r>
   <r>
     <x v="17"/>
     <s v="Prague (LKPR)"/>
     <s v="LKPR"/>
-    <n v="7.2603776241003712E-2"/>
-    <n v="56829"/>
-    <n v="4126"/>
+    <n v="0.13"/>
+    <n v="48070"/>
+    <n v="6136"/>
   </r>
   <r>
     <x v="18"/>
     <s v="Malta (LMML)"/>
     <s v="LMML"/>
-    <n v="4.1530202248708514E-3"/>
-    <n v="29617"/>
-    <n v="123"/>
+    <n v="0"/>
+    <n v="24260"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Graz (LOWG)"/>
     <s v="LOWG"/>
     <n v="0"/>
-    <n v="7085"/>
+    <n v="7044"/>
     <n v="0"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Innsbruck (LOWI)"/>
     <s v="LOWI"/>
-    <n v="0.52029846971038318"/>
-    <n v="7907"/>
-    <n v="4114"/>
+    <n v="0.17"/>
+    <n v="7752"/>
+    <n v="1313"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Klagenfurt (LOWK)"/>
     <s v="LOWK"/>
     <n v="0"/>
-    <n v="2439"/>
+    <n v="2376"/>
     <n v="0"/>
   </r>
   <r>
@@ -3222,142 +3248,142 @@
     <s v="Linz (LOWL)"/>
     <s v="LOWL"/>
     <n v="0"/>
-    <n v="4848"/>
+    <n v="5035"/>
     <n v="0"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Salzburg (LOWS)"/>
     <s v="LOWS"/>
-    <n v="0.25935280189423837"/>
-    <n v="12670"/>
-    <n v="3286"/>
+    <n v="0"/>
+    <n v="12419"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="19"/>
     <s v="Vienna (LOWW)"/>
     <s v="LOWW"/>
-    <n v="0.26884507521033396"/>
-    <n v="117670"/>
-    <n v="31635"/>
+    <n v="0.19"/>
+    <n v="102267"/>
+    <n v="19889"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Santa Maria (LPAZ)"/>
     <s v="LPAZ"/>
     <n v="0"/>
-    <n v="1499"/>
+    <n v="1417"/>
     <n v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Cascais (LPCS)"/>
     <s v="LPCS"/>
-    <n v="3.4811664641555287"/>
-    <n v="3292"/>
-    <n v="11460"/>
+    <n v="0.36"/>
+    <n v="3661"/>
+    <n v="1323"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Flores (LPFL)"/>
     <s v="LPFL"/>
     <n v="0"/>
-    <n v="1047"/>
+    <n v="1018"/>
     <n v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Faro (LPFR)"/>
     <s v="LPFR"/>
-    <n v="1.869158878504673E-3"/>
-    <n v="33170"/>
-    <n v="62"/>
+    <n v="0.01"/>
+    <n v="29651"/>
+    <n v="417"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Horta (LPHR)"/>
     <s v="LPHR"/>
     <n v="0"/>
-    <n v="2703"/>
+    <n v="2565"/>
     <n v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Madeira (LPMA)"/>
     <s v="LPMA"/>
-    <n v="9.7661448761011474E-2"/>
-    <n v="15779"/>
-    <n v="1541"/>
+    <n v="0.11"/>
+    <n v="14186"/>
+    <n v="1564"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Ponta Delgada (LPPD)"/>
     <s v="LPPD"/>
     <n v="0"/>
-    <n v="12491"/>
+    <n v="11548"/>
     <n v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Porto (LPPR)"/>
     <s v="LPPR"/>
-    <n v="0.88461317117151683"/>
-    <n v="52129"/>
-    <n v="46114"/>
+    <n v="1.89"/>
+    <n v="46166"/>
+    <n v="87397"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Porto Santo (LPPS)"/>
     <s v="LPPS"/>
     <n v="0"/>
-    <n v="1479"/>
+    <n v="1415"/>
     <n v="0"/>
   </r>
   <r>
     <x v="20"/>
     <s v="Lisbon (LPPT)"/>
     <s v="LPPT"/>
-    <n v="4.8838089357385437"/>
-    <n v="113365"/>
-    <n v="553653"/>
+    <n v="3.96"/>
+    <n v="101265"/>
+    <n v="401340"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Bucharest/ Băneasa (LRBS)"/>
     <s v="LRBS"/>
     <n v="0"/>
-    <n v="3246"/>
+    <n v="3097"/>
     <n v="0"/>
   </r>
   <r>
     <x v="21"/>
     <s v="Bucharest/ Otopeni (LROP)"/>
     <s v="LROP"/>
-    <n v="9.7012378060830351E-4"/>
-    <n v="55663"/>
-    <n v="54"/>
+    <n v="0.01"/>
+    <n v="50860"/>
+    <n v="294"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Geneva (LSGG)"/>
     <s v="LSGG"/>
-    <n v="0.59038642335414504"/>
-    <n v="82966"/>
-    <n v="48982"/>
+    <n v="0.48"/>
+    <n v="77822"/>
+    <n v="37597"/>
   </r>
   <r>
     <x v="22"/>
     <s v="Zürich (LSZH)"/>
     <s v="LSZH"/>
-    <n v="1.5027193812482"/>
-    <n v="121535"/>
-    <n v="182633"/>
+    <n v="0.93"/>
+    <n v="105557"/>
+    <n v="97952"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="APT_ATFM_LOC" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="APT_ATFM_LOC" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A5:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField name="State" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3836,7 +3862,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -4002,13 +4028,13 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>0.51451036940290051</v>
+        <v>0.52139739911154293</v>
       </c>
       <c r="C12" s="26">
         <v>4503538</v>
       </c>
       <c r="D12" s="26">
-        <v>2317117</v>
+        <v>2348133</v>
       </c>
       <c r="F12" s="21"/>
     </row>
@@ -4018,13 +4044,13 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>0.83033022855431859</v>
+        <v>0.83931623618466977</v>
       </c>
       <c r="C13" s="26">
         <v>4912749</v>
       </c>
       <c r="D13" s="26">
-        <v>4079204</v>
+        <v>4123350</v>
       </c>
       <c r="F13" s="21"/>
     </row>
@@ -4093,7 +4119,7 @@
       </c>
       <c r="B2" s="32">
         <f>APT_ATFM_SES_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -5229,17 +5255,17 @@
       </c>
       <c r="B54" s="57">
         <f t="shared" si="0"/>
-        <v>0.37016444911831498</v>
+        <v>0.37675155838019903</v>
       </c>
       <c r="C54" s="58">
         <v>328065</v>
       </c>
       <c r="D54" s="58">
-        <v>121438</v>
+        <v>123599</v>
       </c>
       <c r="E54" s="52">
         <f>D54/C54</f>
-        <v>0.37016444911831498</v>
+        <v>0.37675155838019903</v>
       </c>
       <c r="F54" s="62">
         <v>1</v>
@@ -5252,17 +5278,17 @@
       </c>
       <c r="B55" s="47">
         <f t="shared" si="0"/>
-        <v>0.43341641587653146</v>
+        <v>0.43238878800547642</v>
       </c>
       <c r="C55" s="26">
         <v>313343</v>
       </c>
       <c r="D55" s="26">
-        <v>135808</v>
+        <v>135486</v>
       </c>
       <c r="E55" s="49">
         <f t="shared" ref="E55:E65" si="4">SUM(D$54:D55)/SUM(C$54:C55)</f>
-        <v>0.40106453302733985</v>
+        <v>0.40393166284174814</v>
       </c>
       <c r="F55" s="63">
         <v>1</v>
@@ -5275,17 +5301,17 @@
       </c>
       <c r="B56" s="47">
         <f t="shared" si="0"/>
-        <v>0.60617784950773945</v>
+        <v>0.63332684840895581</v>
       </c>
       <c r="C56" s="26">
         <v>364949</v>
       </c>
       <c r="D56" s="26">
-        <v>221224</v>
+        <v>231132</v>
       </c>
       <c r="E56" s="49">
         <f t="shared" si="4"/>
-        <v>0.47544757973562068</v>
+        <v>0.48712037577122236</v>
       </c>
       <c r="F56" s="63">
         <v>1</v>
@@ -5298,17 +5324,17 @@
       </c>
       <c r="B57" s="47">
         <f t="shared" si="0"/>
-        <v>0.97970201890119468</v>
+        <v>0.99699344203831752</v>
       </c>
       <c r="C57" s="26">
         <v>403784</v>
       </c>
       <c r="D57" s="26">
-        <v>395588</v>
+        <v>402570</v>
       </c>
       <c r="E57" s="49">
         <f t="shared" si="4"/>
-        <v>0.61983730704943685</v>
+        <v>0.63311895760778536</v>
       </c>
       <c r="F57" s="63">
         <v>1</v>
@@ -5321,17 +5347,17 @@
       </c>
       <c r="B58" s="47">
         <f t="shared" si="0"/>
-        <v>1.5625188676269819</v>
+        <v>1.5683041889511176</v>
       </c>
       <c r="C58" s="26">
         <v>443882</v>
       </c>
       <c r="D58" s="26">
-        <v>693574</v>
+        <v>696142</v>
       </c>
       <c r="E58" s="49">
         <f t="shared" si="4"/>
-        <v>0.84552996375988865</v>
+        <v>0.85701687627391898</v>
       </c>
       <c r="F58" s="63">
         <v>1</v>
@@ -5344,17 +5370,17 @@
       </c>
       <c r="B59" s="47">
         <f t="shared" si="0"/>
-        <v>1.0658894373840282</v>
+        <v>1.0440583097013618</v>
       </c>
       <c r="C59" s="26">
         <v>457008</v>
       </c>
       <c r="D59" s="26">
-        <v>487120</v>
+        <v>477143</v>
       </c>
       <c r="E59" s="49">
         <f t="shared" si="4"/>
-        <v>0.88910620411409458</v>
+        <v>0.89400445082735802</v>
       </c>
       <c r="F59" s="63">
         <v>1</v>
@@ -5367,17 +5393,17 @@
       </c>
       <c r="B60" s="47">
         <f t="shared" si="0"/>
-        <v>0.84047654916139403</v>
+        <v>0.86723745438719824</v>
       </c>
       <c r="C60" s="26">
         <v>477936</v>
       </c>
       <c r="D60" s="26">
-        <v>401694</v>
+        <v>414484</v>
       </c>
       <c r="E60" s="49">
         <f t="shared" si="4"/>
-        <v>0.8807727018641669</v>
+        <v>0.88941747966182461</v>
       </c>
       <c r="F60" s="63">
         <v>1</v>
@@ -5390,17 +5416,17 @@
       </c>
       <c r="B61" s="47">
         <f t="shared" si="0"/>
-        <v>0.68438743675061797</v>
+        <v>0.70534312988336068</v>
       </c>
       <c r="C61" s="26">
         <v>472139</v>
       </c>
       <c r="D61" s="26">
-        <v>323126</v>
+        <v>333020</v>
       </c>
       <c r="E61" s="49">
         <f t="shared" si="4"/>
-        <v>0.85234027964745707</v>
+        <v>0.86276741694382209</v>
       </c>
       <c r="F61" s="63">
         <v>1</v>
@@ -5413,17 +5439,17 @@
       </c>
       <c r="B62" s="47">
         <f t="shared" si="0"/>
-        <v>0.86743354852904064</v>
+        <v>0.86943307830520977</v>
       </c>
       <c r="C62" s="26">
         <v>463609</v>
       </c>
       <c r="D62" s="26">
-        <v>402150</v>
+        <v>403077</v>
       </c>
       <c r="E62" s="49">
         <f t="shared" si="4"/>
-        <v>0.85421891339337375</v>
+        <v>0.86359708058200424</v>
       </c>
       <c r="F62" s="63">
         <v>1</v>
@@ -5436,17 +5462,17 @@
       </c>
       <c r="B63" s="47">
         <f t="shared" si="0"/>
-        <v>0.74525181005926622</v>
+        <v>0.74827532605149827</v>
       </c>
       <c r="C63" s="26">
         <v>456753</v>
       </c>
       <c r="D63" s="26">
-        <v>340396</v>
+        <v>341777</v>
       </c>
       <c r="E63" s="49">
         <f t="shared" si="4"/>
-        <v>0.84231614351706152</v>
+        <v>0.85100017505813752</v>
       </c>
       <c r="F63" s="63">
         <v>1</v>
@@ -5459,17 +5485,17 @@
       </c>
       <c r="B64" s="47">
         <f t="shared" si="0"/>
-        <v>0.69071187033741466</v>
+        <v>0.70759763921806618</v>
       </c>
       <c r="C64" s="26">
         <v>365811</v>
       </c>
       <c r="D64" s="26">
-        <v>252670</v>
+        <v>258847</v>
       </c>
       <c r="E64" s="49">
         <f t="shared" si="4"/>
-        <v>0.83012016636762331</v>
+        <v>0.83946399594130905</v>
       </c>
       <c r="F64" s="63">
         <v>1</v>
@@ -5482,17 +5508,17 @@
       </c>
       <c r="B65" s="47">
         <f t="shared" si="0"/>
-        <v>0.83294388048266621</v>
+        <v>0.83747776835307963</v>
       </c>
       <c r="C65" s="28">
         <v>365470</v>
       </c>
       <c r="D65" s="28">
-        <v>304416</v>
+        <v>306073</v>
       </c>
       <c r="E65" s="55">
         <f t="shared" si="4"/>
-        <v>0.83033022855431859</v>
+        <v>0.83931623618466977</v>
       </c>
       <c r="F65" s="63">
         <v>1</v>
@@ -5644,7 +5670,7 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5684,7 +5710,7 @@
       </c>
       <c r="B2" s="32">
         <f>APT_ATFM_SES_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -5757,14 +5783,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="99">
-        <v>152619</v>
+        <v>136893</v>
       </c>
       <c r="D7" s="100">
-        <v>39035</v>
+        <v>21203</v>
       </c>
       <c r="E7" s="70">
         <f t="shared" ref="E6:E29" si="0">D7/C7</f>
-        <v>0.2557676305047209</v>
+        <v>0.15488739380391986</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -5795,14 +5821,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="103">
-        <v>56829</v>
+        <v>48070</v>
       </c>
       <c r="D9" s="104">
-        <v>4126</v>
+        <v>6136</v>
       </c>
       <c r="E9" s="70">
         <f t="shared" si="0"/>
-        <v>7.2603776241003712E-2</v>
+        <v>0.12764718119409194</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -5871,14 +5897,14 @@
         <v>58</v>
       </c>
       <c r="C13" s="103">
-        <v>838931</v>
+        <v>797306</v>
       </c>
       <c r="D13" s="104">
-        <v>588016</v>
+        <v>493646</v>
       </c>
       <c r="E13" s="70">
         <f t="shared" si="0"/>
-        <v>0.70091104035969587</v>
+        <v>0.61914246224159863</v>
       </c>
       <c r="F13" s="21"/>
     </row>
@@ -5893,11 +5919,11 @@
         <v>799887</v>
       </c>
       <c r="D14" s="104">
-        <v>458534</v>
+        <v>429120</v>
       </c>
       <c r="E14" s="70">
         <f t="shared" si="0"/>
-        <v>0.57324847134657775</v>
+        <v>0.53647577720353001</v>
       </c>
       <c r="F14" s="21"/>
     </row>
@@ -5909,14 +5935,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="103">
-        <v>118290</v>
+        <v>103837</v>
       </c>
       <c r="D15" s="104">
-        <v>383687</v>
+        <v>170024</v>
       </c>
       <c r="E15" s="70">
         <f t="shared" si="0"/>
-        <v>3.2436131541127735</v>
+        <v>1.6374124830262815</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>8</v>
@@ -5930,14 +5956,14 @@
         <v>1</v>
       </c>
       <c r="C16" s="103">
-        <v>53713</v>
+        <v>48969</v>
       </c>
       <c r="D16" s="104">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="E16" s="70">
         <f t="shared" si="0"/>
-        <v>1.744456649228306E-2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -5968,14 +5994,14 @@
         <v>5</v>
       </c>
       <c r="C18" s="103">
-        <v>383770</v>
+        <v>334213</v>
       </c>
       <c r="D18" s="104">
-        <v>57287</v>
+        <v>23886</v>
       </c>
       <c r="E18" s="70">
         <f t="shared" si="0"/>
-        <v>0.14927430492221905</v>
+        <v>7.146939227378947E-2</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -5987,14 +6013,14 @@
         <v>3</v>
       </c>
       <c r="C19" s="103">
-        <v>30847</v>
+        <v>27878</v>
       </c>
       <c r="D19" s="104">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E19" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.0979984216945262E-4</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -6025,14 +6051,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="103">
-        <v>29617</v>
+        <v>24260</v>
       </c>
       <c r="D21" s="104">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E21" s="70">
         <f t="shared" si="0"/>
-        <v>4.1530202248708514E-3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="21"/>
     </row>
@@ -6047,11 +6073,11 @@
         <v>250064</v>
       </c>
       <c r="D22" s="104">
-        <v>613618</v>
+        <v>606383</v>
       </c>
       <c r="E22" s="70">
         <f t="shared" si="0"/>
-        <v>2.4538438159831082</v>
+        <v>2.424911222726982</v>
       </c>
       <c r="F22" s="21"/>
     </row>
@@ -6082,14 +6108,14 @@
         <v>15</v>
       </c>
       <c r="C24" s="103">
-        <v>216252</v>
+        <v>202737</v>
       </c>
       <c r="D24" s="104">
-        <v>40163</v>
+        <v>10831</v>
       </c>
       <c r="E24" s="70">
         <f t="shared" si="0"/>
-        <v>0.18572313782069066</v>
+        <v>5.3423894010466759E-2</v>
       </c>
       <c r="F24" s="21"/>
     </row>
@@ -6101,14 +6127,14 @@
         <v>10</v>
       </c>
       <c r="C25" s="103">
-        <v>236954</v>
+        <v>212892</v>
       </c>
       <c r="D25" s="104">
-        <v>612830</v>
+        <v>492041</v>
       </c>
       <c r="E25" s="70">
         <f t="shared" si="0"/>
-        <v>2.5862825696126674</v>
+        <v>2.3112235311801288</v>
       </c>
       <c r="F25" s="21"/>
     </row>
@@ -6120,14 +6146,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="103">
-        <v>58909</v>
+        <v>53957</v>
       </c>
       <c r="D26" s="104">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="E26" s="70">
         <f t="shared" si="0"/>
-        <v>9.1666808127790318E-4</v>
+        <v>5.4487832903979093E-3</v>
       </c>
       <c r="F26" s="21"/>
     </row>
@@ -6139,14 +6165,14 @@
         <v>7</v>
       </c>
       <c r="C27" s="103">
-        <v>701025</v>
+        <v>640765</v>
       </c>
       <c r="D27" s="104">
-        <v>494288</v>
+        <v>310457</v>
       </c>
       <c r="E27" s="70">
         <f t="shared" si="0"/>
-        <v>0.70509325630327024</v>
+        <v>0.48450992173417712</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -6158,14 +6184,14 @@
         <v>1</v>
       </c>
       <c r="C28" s="103">
-        <v>94646</v>
+        <v>85192</v>
       </c>
       <c r="D28" s="104">
-        <v>28403</v>
+        <v>7557</v>
       </c>
       <c r="E28" s="70">
         <f t="shared" si="0"/>
-        <v>0.3000972043192528</v>
+        <v>8.8705512254671798E-2</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -6177,14 +6203,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="107">
-        <v>204501</v>
+        <v>183379</v>
       </c>
       <c r="D29" s="108">
-        <v>231615</v>
+        <v>135549</v>
       </c>
       <c r="E29" s="70">
         <f t="shared" si="0"/>
-        <v>1.1325861487229891</v>
+        <v>0.73917406027953036</v>
       </c>
       <c r="F29" s="21"/>
     </row>
@@ -10247,7 +10273,7 @@
       </c>
       <c r="B2" s="32">
         <f>APT_ATFM_SES_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -10317,8 +10343,7 @@
         <v>131</v>
       </c>
       <c r="D6" s="70">
-        <f t="shared" ref="D6:D150" si="0">F6/E6</f>
-        <v>0.43061226665529484</v>
+        <v>0.43</v>
       </c>
       <c r="E6" s="76">
         <v>93799</v>
@@ -10338,14 +10363,13 @@
         <v>133</v>
       </c>
       <c r="D7" s="70">
-        <f t="shared" si="0"/>
-        <v>1.3059230892705635E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="76">
         <v>87218</v>
       </c>
       <c r="F7" s="76">
-        <v>1139</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10359,8 +10383,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="70">
-        <f t="shared" si="0"/>
-        <v>2.1939586645468998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="76">
         <v>6290</v>
@@ -10380,7 +10403,6 @@
         <v>137</v>
       </c>
       <c r="D9" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="76">
@@ -10401,14 +10423,13 @@
         <v>139</v>
       </c>
       <c r="D10" s="70">
-        <f t="shared" si="0"/>
-        <v>1.3556530264240014</v>
+        <v>1.33</v>
       </c>
       <c r="E10" s="76">
         <v>215221</v>
       </c>
       <c r="F10" s="76">
-        <v>291765</v>
+        <v>286428</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10422,7 +10443,6 @@
         <v>141</v>
       </c>
       <c r="D11" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="76">
@@ -10443,8 +10463,7 @@
         <v>143</v>
       </c>
       <c r="D12" s="70">
-        <f t="shared" si="0"/>
-        <v>4.0157068062827227E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E12" s="76">
         <v>57300</v>
@@ -10464,8 +10483,7 @@
         <v>145</v>
       </c>
       <c r="D13" s="70">
-        <f t="shared" si="0"/>
-        <v>1.0441788296276089</v>
+        <v>1.04</v>
       </c>
       <c r="E13" s="76">
         <v>58648</v>
@@ -10485,8 +10503,7 @@
         <v>147</v>
       </c>
       <c r="D14" s="70">
-        <f t="shared" si="0"/>
-        <v>0.15136099365750527</v>
+        <v>0.15</v>
       </c>
       <c r="E14" s="76">
         <v>75680</v>
@@ -10506,14 +10523,13 @@
         <v>149</v>
       </c>
       <c r="D15" s="70">
-        <f t="shared" si="0"/>
-        <v>0.29911735861392613</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E15" s="76">
         <v>149891</v>
       </c>
       <c r="F15" s="76">
-        <v>44835</v>
+        <v>43685</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10527,8 +10543,7 @@
         <v>151</v>
       </c>
       <c r="D16" s="70">
-        <f t="shared" si="0"/>
-        <v>9.6890376908638966E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="76">
         <v>19713</v>
@@ -10548,14 +10563,13 @@
         <v>153</v>
       </c>
       <c r="D17" s="70">
-        <f t="shared" si="0"/>
-        <v>1.0533102932452996</v>
+        <v>0.53</v>
       </c>
       <c r="E17" s="76">
         <v>38773</v>
       </c>
       <c r="F17" s="76">
-        <v>40840</v>
+        <v>20555</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10569,7 +10583,6 @@
         <v>155</v>
       </c>
       <c r="D18" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="76">
@@ -10590,14 +10603,13 @@
         <v>157</v>
       </c>
       <c r="D19" s="70">
-        <f t="shared" si="0"/>
-        <v>0.10769303468481239</v>
+        <v>0.05</v>
       </c>
       <c r="E19" s="76">
         <v>42324</v>
       </c>
       <c r="F19" s="76">
-        <v>4558</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10611,14 +10623,13 @@
         <v>159</v>
       </c>
       <c r="D20" s="70">
-        <f t="shared" si="0"/>
-        <v>3.0620805369127517E-3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="76">
         <v>23840</v>
       </c>
       <c r="F20" s="76">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10632,7 +10643,6 @@
         <v>161</v>
       </c>
       <c r="D21" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="76">
@@ -10653,7 +10663,6 @@
         <v>163</v>
       </c>
       <c r="D22" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="76">
@@ -10674,7 +10683,6 @@
         <v>165</v>
       </c>
       <c r="D23" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="76">
@@ -10695,8 +10703,7 @@
         <v>167</v>
       </c>
       <c r="D24" s="70">
-        <f t="shared" si="0"/>
-        <v>0.14003524850193866</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E24" s="76">
         <v>70925</v>
@@ -10716,14 +10723,13 @@
         <v>169</v>
       </c>
       <c r="D25" s="70">
-        <f t="shared" si="0"/>
-        <v>2.677591144014527</v>
+        <v>2.65</v>
       </c>
       <c r="E25" s="76">
         <v>229088</v>
       </c>
       <c r="F25" s="76">
-        <v>613404</v>
+        <v>606169</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10737,8 +10743,7 @@
         <v>171</v>
       </c>
       <c r="D26" s="70">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E26" s="76">
         <v>2940</v>
@@ -10758,8 +10763,7 @@
         <v>173</v>
       </c>
       <c r="D27" s="70">
-        <f t="shared" si="0"/>
-        <v>6.4064064064064067E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E27" s="76">
         <v>4995</v>
@@ -10779,8 +10783,7 @@
         <v>175</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="0"/>
-        <v>5.9044551798174989E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E28" s="76">
         <v>13041</v>
@@ -10800,7 +10803,6 @@
         <v>177</v>
       </c>
       <c r="D29" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="76">
@@ -10821,8 +10823,7 @@
         <v>179</v>
       </c>
       <c r="D30" s="70">
-        <f t="shared" si="0"/>
-        <v>0.337069595852167</v>
+        <v>0.34</v>
       </c>
       <c r="E30" s="76">
         <v>120352</v>
@@ -10842,8 +10843,7 @@
         <v>181</v>
       </c>
       <c r="D31" s="70">
-        <f t="shared" si="0"/>
-        <v>0.22939669640491123</v>
+        <v>0.23</v>
       </c>
       <c r="E31" s="76">
         <v>11321</v>
@@ -10863,8 +10863,7 @@
         <v>183</v>
       </c>
       <c r="D32" s="70">
-        <f t="shared" si="0"/>
-        <v>3.0871289740996439</v>
+        <v>3.09</v>
       </c>
       <c r="E32" s="76">
         <v>113705</v>
@@ -10884,8 +10883,7 @@
         <v>185</v>
       </c>
       <c r="D33" s="70">
-        <f t="shared" si="0"/>
-        <v>1.3560601854422298</v>
+        <v>1.36</v>
       </c>
       <c r="E33" s="76">
         <v>36022</v>
@@ -10905,8 +10903,7 @@
         <v>187</v>
       </c>
       <c r="D34" s="70">
-        <f t="shared" si="0"/>
-        <v>9.1423878274401321E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E34" s="76">
         <v>46268</v>
@@ -10926,8 +10923,7 @@
         <v>189</v>
       </c>
       <c r="D35" s="70">
-        <f t="shared" si="0"/>
-        <v>0.30287989628669321</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="76">
         <v>107990</v>
@@ -10947,7 +10943,6 @@
         <v>191</v>
       </c>
       <c r="D36" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="76">
@@ -10968,7 +10963,6 @@
         <v>193</v>
       </c>
       <c r="D37" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="76">
@@ -10989,7 +10983,6 @@
         <v>195</v>
       </c>
       <c r="D38" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="76">
@@ -11010,8 +11003,7 @@
         <v>197</v>
       </c>
       <c r="D39" s="70">
-        <f t="shared" si="0"/>
-        <v>4.1323042998897462E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E39" s="76">
         <v>22675</v>
@@ -11031,8 +11023,7 @@
         <v>199</v>
       </c>
       <c r="D40" s="70">
-        <f t="shared" si="0"/>
-        <v>4.0897057481057722E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E40" s="76">
         <v>32863</v>
@@ -11052,8 +11043,7 @@
         <v>201</v>
       </c>
       <c r="D41" s="70">
-        <f t="shared" si="0"/>
-        <v>1.4298826143664557E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E41" s="76">
         <v>20701</v>
@@ -11073,7 +11063,6 @@
         <v>203</v>
       </c>
       <c r="D42" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="76">
@@ -11094,7 +11083,6 @@
         <v>205</v>
       </c>
       <c r="D43" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="76">
@@ -11115,8 +11103,7 @@
         <v>207</v>
       </c>
       <c r="D44" s="70">
-        <f t="shared" si="0"/>
-        <v>0.57514638906961613</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E44" s="76">
         <v>10759</v>
@@ -11136,8 +11123,7 @@
         <v>209</v>
       </c>
       <c r="D45" s="70">
-        <f t="shared" si="0"/>
-        <v>3.3902323376007584E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E45" s="76">
         <v>12654</v>
@@ -11157,7 +11143,6 @@
         <v>211</v>
       </c>
       <c r="D46" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="76">
@@ -11178,14 +11163,13 @@
         <v>213</v>
       </c>
       <c r="D47" s="70">
-        <f t="shared" si="0"/>
-        <v>0.18541996830427893</v>
+        <v>0.04</v>
       </c>
       <c r="E47" s="76">
-        <v>7572</v>
+        <v>7187</v>
       </c>
       <c r="F47" s="76">
-        <v>1404</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11199,14 +11183,13 @@
         <v>215</v>
       </c>
       <c r="D48" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E48" s="76">
-        <v>2677</v>
+        <v>2538</v>
       </c>
       <c r="F48" s="76">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11220,11 +11203,10 @@
         <v>217</v>
       </c>
       <c r="D49" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49" s="76">
-        <v>855</v>
+        <v>709</v>
       </c>
       <c r="F49" s="76">
         <v>0</v>
@@ -11241,14 +11223,13 @@
         <v>219</v>
       </c>
       <c r="D50" s="70">
-        <f t="shared" si="0"/>
-        <v>0.35735110874535753</v>
+        <v>0.02</v>
       </c>
       <c r="E50" s="76">
-        <v>82661</v>
+        <v>72324</v>
       </c>
       <c r="F50" s="76">
-        <v>29539</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11262,14 +11243,13 @@
         <v>221</v>
       </c>
       <c r="D51" s="70">
-        <f t="shared" si="0"/>
-        <v>1.6630420877574517E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E51" s="76">
-        <v>15634</v>
+        <v>13193</v>
       </c>
       <c r="F51" s="76">
-        <v>26</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11283,11 +11263,10 @@
         <v>223</v>
       </c>
       <c r="D52" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52" s="76">
-        <v>586</v>
+        <v>519</v>
       </c>
       <c r="F52" s="76">
         <v>0</v>
@@ -11304,14 +11283,13 @@
         <v>225</v>
       </c>
       <c r="D53" s="70">
-        <f t="shared" si="0"/>
-        <v>0.3000972043192528</v>
+        <v>0.09</v>
       </c>
       <c r="E53" s="76">
-        <v>94646</v>
+        <v>85192</v>
       </c>
       <c r="F53" s="76">
-        <v>28403</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11325,11 +11303,10 @@
         <v>227</v>
       </c>
       <c r="D54" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54" s="76">
-        <v>291</v>
+        <v>556</v>
       </c>
       <c r="F54" s="76">
         <v>0</v>
@@ -11346,14 +11323,13 @@
         <v>229</v>
       </c>
       <c r="D55" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55" s="76">
-        <v>30551</v>
+        <v>27318</v>
       </c>
       <c r="F55" s="76">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11367,11 +11343,10 @@
         <v>231</v>
       </c>
       <c r="D56" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="76">
         <v>0</v>
@@ -11388,14 +11363,13 @@
         <v>233</v>
       </c>
       <c r="D57" s="70">
-        <f t="shared" si="0"/>
-        <v>0.52989716500484485</v>
+        <v>0.46</v>
       </c>
       <c r="E57" s="76">
-        <v>63986</v>
+        <v>58933</v>
       </c>
       <c r="F57" s="76">
-        <v>33906</v>
+        <v>26928</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11409,14 +11383,13 @@
         <v>235</v>
       </c>
       <c r="D58" s="70">
-        <f t="shared" si="0"/>
-        <v>7.0792936632756667E-2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="76">
-        <v>50231</v>
+        <v>44885</v>
       </c>
       <c r="F58" s="76">
-        <v>3556</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11430,14 +11403,13 @@
         <v>237</v>
       </c>
       <c r="D59" s="70">
-        <f t="shared" si="0"/>
-        <v>0.65243833623835379</v>
+        <v>0.52</v>
       </c>
       <c r="E59" s="76">
-        <v>159494</v>
+        <v>141727</v>
       </c>
       <c r="F59" s="76">
-        <v>104060</v>
+        <v>73396</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11451,14 +11423,13 @@
         <v>239</v>
       </c>
       <c r="D60" s="70">
-        <f t="shared" si="0"/>
-        <v>0.70932281198044611</v>
+        <v>0.4</v>
       </c>
       <c r="E60" s="76">
-        <v>40299</v>
+        <v>39453</v>
       </c>
       <c r="F60" s="76">
-        <v>28585</v>
+        <v>15710</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11472,14 +11443,13 @@
         <v>241</v>
       </c>
       <c r="D61" s="70">
-        <f t="shared" si="0"/>
-        <v>0.69069336032846362</v>
+        <v>0.35</v>
       </c>
       <c r="E61" s="76">
-        <v>194603</v>
+        <v>175979</v>
       </c>
       <c r="F61" s="76">
-        <v>134411</v>
+        <v>62041</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11493,14 +11463,13 @@
         <v>243</v>
       </c>
       <c r="D62" s="70">
-        <f t="shared" si="0"/>
-        <v>0.49465516582363961</v>
+        <v>0.11</v>
       </c>
       <c r="E62" s="76">
-        <v>78487</v>
+        <v>69716</v>
       </c>
       <c r="F62" s="76">
-        <v>38824</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11514,14 +11483,13 @@
         <v>245</v>
       </c>
       <c r="D63" s="70">
-        <f t="shared" si="0"/>
-        <v>1.3249594031160852</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E63" s="76">
-        <v>113925</v>
+        <v>110072</v>
       </c>
       <c r="F63" s="76">
-        <v>150946</v>
+        <v>124264</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11535,11 +11503,10 @@
         <v>247</v>
       </c>
       <c r="D64" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64" s="76">
-        <v>773</v>
+        <v>738</v>
       </c>
       <c r="F64" s="76">
         <v>0</v>
@@ -11556,11 +11523,10 @@
         <v>249</v>
       </c>
       <c r="D65" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65" s="76">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="F65" s="76">
         <v>0</v>
@@ -11577,14 +11543,13 @@
         <v>251</v>
       </c>
       <c r="D66" s="70">
-        <f t="shared" si="0"/>
-        <v>1.8702602106942274</v>
+        <v>0.17</v>
       </c>
       <c r="E66" s="76">
-        <v>30091</v>
+        <v>27505</v>
       </c>
       <c r="F66" s="76">
-        <v>56278</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11598,11 +11563,10 @@
         <v>253</v>
       </c>
       <c r="D67" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E67" s="76">
-        <v>1770</v>
+        <v>1908</v>
       </c>
       <c r="F67" s="76">
         <v>0</v>
@@ -11619,14 +11583,13 @@
         <v>255</v>
       </c>
       <c r="D68" s="70">
-        <f t="shared" si="0"/>
-        <v>3.3913043478260872E-2</v>
+        <v>0</v>
       </c>
       <c r="E68" s="76">
-        <v>2300</v>
+        <v>2291</v>
       </c>
       <c r="F68" s="76">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11640,14 +11603,13 @@
         <v>257</v>
       </c>
       <c r="D69" s="70">
-        <f t="shared" si="0"/>
-        <v>3.2923832923832927E-2</v>
+        <v>0</v>
       </c>
       <c r="E69" s="76">
-        <v>2035</v>
+        <v>2281</v>
       </c>
       <c r="F69" s="76">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11661,14 +11623,13 @@
         <v>259</v>
       </c>
       <c r="D70" s="70">
-        <f t="shared" si="0"/>
-        <v>0.69967948717948714</v>
+        <v>1.3</v>
       </c>
       <c r="E70" s="76">
-        <v>3120</v>
+        <v>3047</v>
       </c>
       <c r="F70" s="76">
-        <v>2183</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11682,14 +11643,13 @@
         <v>261</v>
       </c>
       <c r="D71" s="70">
-        <f t="shared" si="0"/>
-        <v>0.2097839380350591</v>
+        <v>0.06</v>
       </c>
       <c r="E71" s="76">
-        <v>36795</v>
+        <v>34893</v>
       </c>
       <c r="F71" s="76">
-        <v>7719</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11703,11 +11663,10 @@
         <v>263</v>
       </c>
       <c r="D72" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E72" s="76">
-        <v>3890</v>
+        <v>4072</v>
       </c>
       <c r="F72" s="76">
         <v>0</v>
@@ -11724,14 +11683,13 @@
         <v>265</v>
       </c>
       <c r="D73" s="70">
-        <f t="shared" si="0"/>
-        <v>3.3848847388386345E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E73" s="76">
-        <v>3427</v>
+        <v>3355</v>
       </c>
       <c r="F73" s="76">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11745,14 +11703,13 @@
         <v>267</v>
       </c>
       <c r="D74" s="70">
-        <f t="shared" si="0"/>
-        <v>1.9910403185664509E-3</v>
+        <v>0.2</v>
       </c>
       <c r="E74" s="76">
-        <v>6027</v>
+        <v>5911</v>
       </c>
       <c r="F74" s="76">
-        <v>12</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11766,11 +11723,10 @@
         <v>269</v>
       </c>
       <c r="D75" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E75" s="76">
-        <v>1503</v>
+        <v>1716</v>
       </c>
       <c r="F75" s="76">
         <v>0</v>
@@ -11787,11 +11743,10 @@
         <v>271</v>
       </c>
       <c r="D76" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E76" s="76">
-        <v>1367</v>
+        <v>1482</v>
       </c>
       <c r="F76" s="76">
         <v>0</v>
@@ -11808,11 +11763,10 @@
         <v>273</v>
       </c>
       <c r="D77" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E77" s="76">
-        <v>1478</v>
+        <v>1236</v>
       </c>
       <c r="F77" s="76">
         <v>0</v>
@@ -11829,14 +11783,13 @@
         <v>275</v>
       </c>
       <c r="D78" s="70">
-        <f t="shared" si="0"/>
-        <v>2.2536240711414302E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E78" s="76">
-        <v>8209</v>
+        <v>8494</v>
       </c>
       <c r="F78" s="76">
-        <v>185</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11850,14 +11803,13 @@
         <v>277</v>
       </c>
       <c r="D79" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E79" s="76">
-        <v>3144</v>
+        <v>3338</v>
       </c>
       <c r="F79" s="76">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11871,14 +11823,13 @@
         <v>279</v>
       </c>
       <c r="D80" s="70">
-        <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.34</v>
       </c>
       <c r="E80" s="76">
-        <v>5642</v>
+        <v>6264</v>
       </c>
       <c r="F80" s="76">
-        <v>1302</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11892,14 +11843,13 @@
         <v>281</v>
       </c>
       <c r="D81" s="70">
-        <f t="shared" si="0"/>
-        <v>1.3982642237222759E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E81" s="76">
-        <v>8296</v>
+        <v>8954</v>
       </c>
       <c r="F81" s="76">
-        <v>116</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11913,14 +11863,13 @@
         <v>283</v>
       </c>
       <c r="D82" s="70">
-        <f t="shared" si="0"/>
-        <v>4.2332607512248233</v>
+        <v>0.94</v>
       </c>
       <c r="E82" s="76">
-        <v>3674</v>
+        <v>3827</v>
       </c>
       <c r="F82" s="76">
-        <v>15553</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11934,14 +11883,13 @@
         <v>285</v>
       </c>
       <c r="D83" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E83" s="76">
-        <v>3642</v>
+        <v>3943</v>
       </c>
       <c r="F83" s="76">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11955,14 +11903,13 @@
         <v>287</v>
       </c>
       <c r="D84" s="70">
-        <f t="shared" si="0"/>
-        <v>1.4433173957728227E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E84" s="76">
-        <v>44758</v>
+        <v>40282</v>
       </c>
       <c r="F84" s="76">
-        <v>646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11976,14 +11923,13 @@
         <v>289</v>
       </c>
       <c r="D85" s="70">
-        <f t="shared" si="0"/>
-        <v>0.22665947112790069</v>
+        <v>0.36</v>
       </c>
       <c r="E85" s="76">
-        <v>1853</v>
+        <v>2066</v>
       </c>
       <c r="F85" s="76">
-        <v>420</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11997,14 +11943,13 @@
         <v>291</v>
       </c>
       <c r="D86" s="70">
-        <f t="shared" si="0"/>
-        <v>0.41699664940603109</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E86" s="76">
-        <v>3283</v>
+        <v>3494</v>
       </c>
       <c r="F86" s="76">
-        <v>1369</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12018,11 +11963,10 @@
         <v>293</v>
       </c>
       <c r="D87" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E87" s="76">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="F87" s="76">
         <v>0</v>
@@ -12039,14 +11983,13 @@
         <v>295</v>
       </c>
       <c r="D88" s="70">
-        <f t="shared" si="0"/>
-        <v>2.0734730673878748E-2</v>
+        <v>0</v>
       </c>
       <c r="E88" s="76">
-        <v>4437</v>
+        <v>4964</v>
       </c>
       <c r="F88" s="76">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12060,14 +12003,13 @@
         <v>297</v>
       </c>
       <c r="D89" s="70">
-        <f t="shared" si="0"/>
-        <v>1.0930416447021614</v>
+        <v>2.86</v>
       </c>
       <c r="E89" s="76">
-        <v>7588</v>
+        <v>8547</v>
       </c>
       <c r="F89" s="76">
-        <v>8294</v>
+        <v>24430</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12081,11 +12023,10 @@
         <v>299</v>
       </c>
       <c r="D90" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E90" s="76">
-        <v>660</v>
+        <v>860</v>
       </c>
       <c r="F90" s="76">
         <v>0</v>
@@ -12102,11 +12043,10 @@
         <v>301</v>
       </c>
       <c r="D91" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E91" s="76">
-        <v>1510</v>
+        <v>1795</v>
       </c>
       <c r="F91" s="76">
         <v>0</v>
@@ -12123,14 +12063,13 @@
         <v>303</v>
       </c>
       <c r="D92" s="70">
-        <f t="shared" si="0"/>
-        <v>4.1303350160624142E-3</v>
+        <v>0</v>
       </c>
       <c r="E92" s="76">
-        <v>2179</v>
+        <v>2627</v>
       </c>
       <c r="F92" s="76">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12144,14 +12083,13 @@
         <v>305</v>
       </c>
       <c r="D93" s="70">
-        <f t="shared" si="0"/>
-        <v>1.6515443823465066</v>
+        <v>0.24</v>
       </c>
       <c r="E93" s="76">
-        <v>50279</v>
+        <v>45816</v>
       </c>
       <c r="F93" s="76">
-        <v>83038</v>
+        <v>10811</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12165,14 +12103,13 @@
         <v>307</v>
       </c>
       <c r="D94" s="70">
-        <f t="shared" si="0"/>
-        <v>1.0148687167680754</v>
+        <v>0.85</v>
       </c>
       <c r="E94" s="76">
-        <v>72972</v>
+        <v>67572</v>
       </c>
       <c r="F94" s="76">
-        <v>74057</v>
+        <v>57701</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12186,14 +12123,13 @@
         <v>309</v>
       </c>
       <c r="D95" s="70">
-        <f t="shared" si="0"/>
-        <v>8.8983050847457626E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E95" s="76">
-        <v>5192</v>
+        <v>5995</v>
       </c>
       <c r="F95" s="76">
-        <v>462</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12207,14 +12143,13 @@
         <v>311</v>
       </c>
       <c r="D96" s="70">
-        <f t="shared" si="0"/>
-        <v>1.4769390222836415E-2</v>
+        <v>0</v>
       </c>
       <c r="E96" s="76">
-        <v>11578</v>
+        <v>12983</v>
       </c>
       <c r="F96" s="76">
-        <v>171</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12228,14 +12163,13 @@
         <v>313</v>
       </c>
       <c r="D97" s="70">
-        <f t="shared" si="0"/>
-        <v>0.3792235801581596</v>
+        <v>0</v>
       </c>
       <c r="E97" s="76">
-        <v>2782</v>
+        <v>2869</v>
       </c>
       <c r="F97" s="76">
-        <v>1055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12249,14 +12183,13 @@
         <v>315</v>
       </c>
       <c r="D98" s="70">
-        <f t="shared" si="0"/>
-        <v>0.20090233545647559</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E98" s="76">
-        <v>3768</v>
+        <v>3869</v>
       </c>
       <c r="F98" s="76">
-        <v>757</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12270,14 +12203,13 @@
         <v>317</v>
       </c>
       <c r="D99" s="70">
-        <f t="shared" si="0"/>
-        <v>0.10296483566996092</v>
+        <v>0.01</v>
       </c>
       <c r="E99" s="76">
-        <v>17404</v>
+        <v>15164</v>
       </c>
       <c r="F99" s="76">
-        <v>1792</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12291,14 +12223,13 @@
         <v>319</v>
       </c>
       <c r="D100" s="70">
-        <f t="shared" si="0"/>
-        <v>0.23655913978494625</v>
+        <v>0.8</v>
       </c>
       <c r="E100" s="76">
-        <v>1674</v>
+        <v>1870</v>
       </c>
       <c r="F100" s="76">
-        <v>396</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12312,14 +12243,13 @@
         <v>321</v>
       </c>
       <c r="D101" s="70">
-        <f t="shared" si="0"/>
-        <v>1.3838323353293414</v>
+        <v>0.04</v>
       </c>
       <c r="E101" s="76">
-        <v>1670</v>
+        <v>1779</v>
       </c>
       <c r="F101" s="76">
-        <v>2311</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12333,14 +12263,13 @@
         <v>323</v>
       </c>
       <c r="D102" s="70">
-        <f t="shared" si="0"/>
-        <v>3.0813397129186604</v>
+        <v>9.32</v>
       </c>
       <c r="E102" s="76">
-        <v>1881</v>
+        <v>1722</v>
       </c>
       <c r="F102" s="76">
-        <v>5796</v>
+        <v>16053</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12354,14 +12283,13 @@
         <v>325</v>
       </c>
       <c r="D103" s="70">
-        <f t="shared" si="0"/>
-        <v>1.5197177817921539</v>
+        <v>1.84</v>
       </c>
       <c r="E103" s="76">
-        <v>29339</v>
+        <v>31969</v>
       </c>
       <c r="F103" s="76">
-        <v>44587</v>
+        <v>58819</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12375,14 +12303,13 @@
         <v>327</v>
       </c>
       <c r="D104" s="70">
-        <f t="shared" si="0"/>
-        <v>0.19210571417271277</v>
+        <v>0.45</v>
       </c>
       <c r="E104" s="76">
-        <v>227557</v>
+        <v>204649</v>
       </c>
       <c r="F104" s="76">
-        <v>43715</v>
+        <v>92523</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12396,14 +12323,13 @@
         <v>329</v>
       </c>
       <c r="D105" s="70">
-        <f t="shared" si="0"/>
-        <v>4.8655060590544466</v>
+        <v>2.94</v>
       </c>
       <c r="E105" s="76">
-        <v>5859</v>
+        <v>5804</v>
       </c>
       <c r="F105" s="76">
-        <v>28507</v>
+        <v>17092</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12417,14 +12343,13 @@
         <v>331</v>
       </c>
       <c r="D106" s="70">
-        <f t="shared" si="0"/>
-        <v>1.5413840021463341</v>
+        <v>1.74</v>
       </c>
       <c r="E106" s="76">
-        <v>104364</v>
+        <v>99372</v>
       </c>
       <c r="F106" s="76">
-        <v>160865</v>
+        <v>173039</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12438,14 +12363,13 @@
         <v>333</v>
       </c>
       <c r="D107" s="70">
-        <f t="shared" si="0"/>
-        <v>0.13669623059866962</v>
+        <v>0.05</v>
       </c>
       <c r="E107" s="76">
-        <v>9020</v>
+        <v>9414</v>
       </c>
       <c r="F107" s="76">
-        <v>1233</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12459,14 +12383,13 @@
         <v>335</v>
       </c>
       <c r="D108" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E108" s="76">
-        <v>6693</v>
+        <v>6366</v>
       </c>
       <c r="F108" s="76">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12480,11 +12403,10 @@
         <v>337</v>
       </c>
       <c r="D109" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E109" s="76">
-        <v>1178</v>
+        <v>1123</v>
       </c>
       <c r="F109" s="76">
         <v>0</v>
@@ -12501,14 +12423,13 @@
         <v>339</v>
       </c>
       <c r="D110" s="70">
-        <f t="shared" si="0"/>
-        <v>0.53114065780265918</v>
+        <v>0.15</v>
       </c>
       <c r="E110" s="76">
-        <v>1429</v>
+        <v>1474</v>
       </c>
       <c r="F110" s="76">
-        <v>759</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12522,11 +12443,10 @@
         <v>341</v>
       </c>
       <c r="D111" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E111" s="76">
-        <v>1787</v>
+        <v>1977</v>
       </c>
       <c r="F111" s="76">
         <v>0</v>
@@ -12543,11 +12463,10 @@
         <v>343</v>
       </c>
       <c r="D112" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E112" s="76">
-        <v>2607</v>
+        <v>2481</v>
       </c>
       <c r="F112" s="76">
         <v>0</v>
@@ -12564,11 +12483,10 @@
         <v>345</v>
       </c>
       <c r="D113" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E113" s="76">
-        <v>6129</v>
+        <v>6367</v>
       </c>
       <c r="F113" s="76">
         <v>0</v>
@@ -12585,11 +12503,10 @@
         <v>347</v>
       </c>
       <c r="D114" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E114" s="76">
-        <v>1092</v>
+        <v>1050</v>
       </c>
       <c r="F114" s="76">
         <v>0</v>
@@ -12606,14 +12523,13 @@
         <v>349</v>
       </c>
       <c r="D115" s="70">
-        <f t="shared" si="0"/>
-        <v>0.17597633136094676</v>
+        <v>0.05</v>
       </c>
       <c r="E115" s="76">
-        <v>25350</v>
+        <v>23333</v>
       </c>
       <c r="F115" s="76">
-        <v>4461</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12627,11 +12543,10 @@
         <v>351</v>
       </c>
       <c r="D116" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E116" s="76">
-        <v>1464</v>
+        <v>1389</v>
       </c>
       <c r="F116" s="76">
         <v>0</v>
@@ -12648,14 +12563,13 @@
         <v>353</v>
       </c>
       <c r="D117" s="70">
-        <f t="shared" si="0"/>
-        <v>0.55427408412483037</v>
+        <v>0.21</v>
       </c>
       <c r="E117" s="76">
-        <v>35376</v>
+        <v>33257</v>
       </c>
       <c r="F117" s="76">
-        <v>19608</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12669,11 +12583,10 @@
         <v>355</v>
       </c>
       <c r="D118" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E118" s="76">
-        <v>1587</v>
+        <v>1677</v>
       </c>
       <c r="F118" s="76">
         <v>0</v>
@@ -12690,14 +12603,13 @@
         <v>357</v>
       </c>
       <c r="D119" s="70">
-        <f t="shared" si="0"/>
-        <v>4.3829494671708491E-2</v>
+        <v>0</v>
       </c>
       <c r="E119" s="76">
-        <v>5818</v>
+        <v>6373</v>
       </c>
       <c r="F119" s="76">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12711,14 +12623,13 @@
         <v>359</v>
       </c>
       <c r="D120" s="70">
-        <f t="shared" si="0"/>
-        <v>4.0525235945835041</v>
+        <v>1.28</v>
       </c>
       <c r="E120" s="76">
-        <v>4874</v>
+        <v>5288</v>
       </c>
       <c r="F120" s="76">
-        <v>19752</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12732,14 +12643,13 @@
         <v>361</v>
       </c>
       <c r="D121" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E121" s="76">
-        <v>2644</v>
+        <v>2241</v>
       </c>
       <c r="F121" s="76">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12753,14 +12663,13 @@
         <v>363</v>
       </c>
       <c r="D122" s="70">
-        <f t="shared" si="0"/>
-        <v>3.2436131541127735</v>
+        <v>1.64</v>
       </c>
       <c r="E122" s="76">
-        <v>118290</v>
+        <v>103837</v>
       </c>
       <c r="F122" s="76">
-        <v>383687</v>
+        <v>170024</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12774,14 +12683,13 @@
         <v>365</v>
       </c>
       <c r="D123" s="70">
-        <f t="shared" si="0"/>
-        <v>1.744456649228306E-2</v>
+        <v>0</v>
       </c>
       <c r="E123" s="76">
-        <v>53713</v>
+        <v>48969</v>
       </c>
       <c r="F123" s="76">
-        <v>937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12795,14 +12703,13 @@
         <v>367</v>
       </c>
       <c r="D124" s="70">
-        <f t="shared" si="0"/>
-        <v>0.38029506931457241</v>
+        <v>0.09</v>
       </c>
       <c r="E124" s="76">
-        <v>101061</v>
+        <v>93357</v>
       </c>
       <c r="F124" s="76">
-        <v>38433</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12816,14 +12723,13 @@
         <v>369</v>
       </c>
       <c r="D125" s="70">
-        <f t="shared" si="0"/>
-        <v>7.1985697164973772E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E125" s="76">
-        <v>50899</v>
+        <v>44432</v>
       </c>
       <c r="F125" s="76">
-        <v>3664</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12837,14 +12743,13 @@
         <v>371</v>
       </c>
       <c r="D126" s="70">
-        <f t="shared" si="0"/>
-        <v>6.4205428457840899E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E126" s="76">
-        <v>55338</v>
+        <v>50590</v>
       </c>
       <c r="F126" s="76">
-        <v>3553</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12858,14 +12763,13 @@
         <v>373</v>
       </c>
       <c r="D127" s="70">
-        <f t="shared" si="0"/>
-        <v>6.9726002036471349E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E127" s="76">
-        <v>43212</v>
+        <v>39567</v>
       </c>
       <c r="F127" s="76">
-        <v>3013</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12879,14 +12783,13 @@
         <v>375</v>
       </c>
       <c r="D128" s="70">
-        <f t="shared" si="0"/>
-        <v>6.4715593576467056E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E128" s="76">
-        <v>133260</v>
+        <v>106267</v>
       </c>
       <c r="F128" s="76">
-        <v>8624</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12900,14 +12803,13 @@
         <v>377</v>
       </c>
       <c r="D129" s="70">
-        <f t="shared" si="0"/>
-        <v>7.2603776241003712E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E129" s="76">
-        <v>56829</v>
+        <v>48070</v>
       </c>
       <c r="F129" s="76">
-        <v>4126</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12921,14 +12823,13 @@
         <v>379</v>
       </c>
       <c r="D130" s="70">
-        <f t="shared" si="0"/>
-        <v>4.1530202248708514E-3</v>
+        <v>0</v>
       </c>
       <c r="E130" s="76">
-        <v>29617</v>
+        <v>24260</v>
       </c>
       <c r="F130" s="76">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12942,11 +12843,10 @@
         <v>381</v>
       </c>
       <c r="D131" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E131" s="76">
-        <v>7085</v>
+        <v>7044</v>
       </c>
       <c r="F131" s="76">
         <v>0</v>
@@ -12963,14 +12863,13 @@
         <v>383</v>
       </c>
       <c r="D132" s="70">
-        <f t="shared" si="0"/>
-        <v>0.52029846971038318</v>
+        <v>0.17</v>
       </c>
       <c r="E132" s="76">
-        <v>7907</v>
+        <v>7752</v>
       </c>
       <c r="F132" s="76">
-        <v>4114</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12984,11 +12883,10 @@
         <v>385</v>
       </c>
       <c r="D133" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E133" s="76">
-        <v>2439</v>
+        <v>2376</v>
       </c>
       <c r="F133" s="76">
         <v>0</v>
@@ -13005,11 +12903,10 @@
         <v>387</v>
       </c>
       <c r="D134" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E134" s="76">
-        <v>4848</v>
+        <v>5035</v>
       </c>
       <c r="F134" s="76">
         <v>0</v>
@@ -13026,14 +12923,13 @@
         <v>389</v>
       </c>
       <c r="D135" s="70">
-        <f t="shared" si="0"/>
-        <v>0.25935280189423837</v>
+        <v>0</v>
       </c>
       <c r="E135" s="76">
-        <v>12670</v>
+        <v>12419</v>
       </c>
       <c r="F135" s="76">
-        <v>3286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13047,14 +12943,13 @@
         <v>391</v>
       </c>
       <c r="D136" s="70">
-        <f t="shared" si="0"/>
-        <v>0.26884507521033396</v>
+        <v>0.19</v>
       </c>
       <c r="E136" s="76">
-        <v>117670</v>
+        <v>102267</v>
       </c>
       <c r="F136" s="76">
-        <v>31635</v>
+        <v>19889</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13068,11 +12963,10 @@
         <v>393</v>
       </c>
       <c r="D137" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E137" s="76">
-        <v>1499</v>
+        <v>1417</v>
       </c>
       <c r="F137" s="76">
         <v>0</v>
@@ -13089,14 +12983,13 @@
         <v>395</v>
       </c>
       <c r="D138" s="70">
-        <f t="shared" si="0"/>
-        <v>3.4811664641555287</v>
+        <v>0.36</v>
       </c>
       <c r="E138" s="76">
-        <v>3292</v>
+        <v>3661</v>
       </c>
       <c r="F138" s="76">
-        <v>11460</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13110,11 +13003,10 @@
         <v>397</v>
       </c>
       <c r="D139" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E139" s="76">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="F139" s="76">
         <v>0</v>
@@ -13131,14 +13023,13 @@
         <v>399</v>
       </c>
       <c r="D140" s="70">
-        <f t="shared" si="0"/>
-        <v>1.869158878504673E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E140" s="76">
-        <v>33170</v>
+        <v>29651</v>
       </c>
       <c r="F140" s="76">
-        <v>62</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13152,11 +13043,10 @@
         <v>401</v>
       </c>
       <c r="D141" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E141" s="76">
-        <v>2703</v>
+        <v>2565</v>
       </c>
       <c r="F141" s="76">
         <v>0</v>
@@ -13173,14 +13063,13 @@
         <v>403</v>
       </c>
       <c r="D142" s="70">
-        <f t="shared" si="0"/>
-        <v>9.7661448761011474E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E142" s="76">
-        <v>15779</v>
+        <v>14186</v>
       </c>
       <c r="F142" s="76">
-        <v>1541</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13194,11 +13083,10 @@
         <v>405</v>
       </c>
       <c r="D143" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E143" s="76">
-        <v>12491</v>
+        <v>11548</v>
       </c>
       <c r="F143" s="76">
         <v>0</v>
@@ -13215,14 +13103,13 @@
         <v>407</v>
       </c>
       <c r="D144" s="70">
-        <f t="shared" si="0"/>
-        <v>0.88461317117151683</v>
+        <v>1.89</v>
       </c>
       <c r="E144" s="76">
-        <v>52129</v>
+        <v>46166</v>
       </c>
       <c r="F144" s="76">
-        <v>46114</v>
+        <v>87397</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13236,11 +13123,10 @@
         <v>409</v>
       </c>
       <c r="D145" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E145" s="76">
-        <v>1479</v>
+        <v>1415</v>
       </c>
       <c r="F145" s="76">
         <v>0</v>
@@ -13257,14 +13143,13 @@
         <v>411</v>
       </c>
       <c r="D146" s="70">
-        <f t="shared" si="0"/>
-        <v>4.8838089357385437</v>
+        <v>3.96</v>
       </c>
       <c r="E146" s="76">
-        <v>113365</v>
+        <v>101265</v>
       </c>
       <c r="F146" s="76">
-        <v>553653</v>
+        <v>401340</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13278,11 +13163,10 @@
         <v>413</v>
       </c>
       <c r="D147" s="70">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E147" s="76">
-        <v>3246</v>
+        <v>3097</v>
       </c>
       <c r="F147" s="76">
         <v>0</v>
@@ -13299,14 +13183,13 @@
         <v>415</v>
       </c>
       <c r="D148" s="70">
-        <f t="shared" si="0"/>
-        <v>9.7012378060830351E-4</v>
+        <v>0.01</v>
       </c>
       <c r="E148" s="76">
-        <v>55663</v>
+        <v>50860</v>
       </c>
       <c r="F148" s="76">
-        <v>54</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13320,14 +13203,13 @@
         <v>417</v>
       </c>
       <c r="D149" s="70">
-        <f t="shared" si="0"/>
-        <v>0.59038642335414504</v>
+        <v>0.48</v>
       </c>
       <c r="E149" s="76">
-        <v>82966</v>
+        <v>77822</v>
       </c>
       <c r="F149" s="76">
-        <v>48982</v>
+        <v>37597</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13341,14 +13223,13 @@
         <v>419</v>
       </c>
       <c r="D150" s="70">
-        <f t="shared" si="0"/>
-        <v>1.5027193812482</v>
+        <v>0.93</v>
       </c>
       <c r="E150" s="76">
-        <v>121535</v>
+        <v>105557</v>
       </c>
       <c r="F150" s="76">
-        <v>182633</v>
+        <v>97952</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
